--- a/Experiment 2/Trace Files/reno-reno/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/reno-reno/ThroughputGraph.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>CBR</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Reno Flow 2</t>
+  </si>
+  <si>
+    <t>T-Test Probabillity. One tailed, two-sample unequal variance</t>
   </si>
 </sst>
 </file>
@@ -500,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1305583664"/>
-        <c:axId val="-1305578224"/>
+        <c:axId val="-647147088"/>
+        <c:axId val="-647144368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1305583664"/>
+        <c:axId val="-647147088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1305578224"/>
+        <c:crossAx val="-647144368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -611,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1305578224"/>
+        <c:axId val="-647144368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
@@ -720,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1305583664"/>
+        <c:crossAx val="-647147088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1098,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1305580944"/>
-        <c:axId val="-1471155472"/>
+        <c:axId val="-647143280"/>
+        <c:axId val="-647135120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1305580944"/>
+        <c:axId val="-647143280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1471155472"/>
+        <c:crossAx val="-647135120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1209,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1471155472"/>
+        <c:axId val="-647135120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="380"/>
@@ -1317,7 +1320,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1305580944"/>
+        <c:crossAx val="-647143280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2840,10 +2843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3002,6 +3005,15 @@
         <v>466.76526427300001</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <f>TTEST(B2:B11,C2:C11,1,3)</f>
+        <v>0.43106021713003001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Experiment 2/Trace Files/reno-reno/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/reno-reno/ThroughputGraph.xlsx
@@ -248,34 +248,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.82014606799999</c:v>
+                  <c:v>253.16058114500001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411.17186969099998</c:v>
+                  <c:v>252.52323912099999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.85310912599999</c:v>
+                  <c:v>253.26263905600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>411.70014296199997</c:v>
+                  <c:v>253.052462687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>391.53296663100002</c:v>
+                  <c:v>230.36618364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394.75329405000002</c:v>
+                  <c:v>233.47121254800001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>385.96107289399998</c:v>
+                  <c:v>223.94911358300001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>391.01166379199998</c:v>
+                  <c:v>228.264962252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>395.431774072</c:v>
+                  <c:v>230.60946095700001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>390.516295238</c:v>
+                  <c:v>206.98599342899999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -354,34 +354,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.16927304199999</c:v>
+                  <c:v>252.634357521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410.96536690900001</c:v>
+                  <c:v>252.28017408299999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410.97990929700001</c:v>
+                  <c:v>252.29430338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410.90131940800001</c:v>
+                  <c:v>252.231640704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.47794382699999</c:v>
+                  <c:v>229.197590617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>395.01928021200001</c:v>
+                  <c:v>233.80591016100001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>389.78454594099998</c:v>
+                  <c:v>227.94800138400001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>390.12168651399998</c:v>
+                  <c:v>227.30625686900001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>396.24814598799998</c:v>
+                  <c:v>229.231217061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>381.42936438300001</c:v>
+                  <c:v>206.35550061000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-647147088"/>
-        <c:axId val="-647144368"/>
+        <c:axId val="-2011220112"/>
+        <c:axId val="-2011232080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-647147088"/>
+        <c:axId val="-2011220112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-647144368"/>
+        <c:crossAx val="-2011232080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,11 +614,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-647144368"/>
+        <c:axId val="-2011232080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
-          <c:min val="375"/>
+          <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -723,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-647147088"/>
+        <c:crossAx val="-2011220112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -952,34 +952,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.82014606799999</c:v>
+                  <c:v>253.16058114500001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>411.17186969099998</c:v>
+                  <c:v>252.52323912099999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.85310912599999</c:v>
+                  <c:v>253.26263905600001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>411.70014296199997</c:v>
+                  <c:v>253.052462687</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>391.53296663100002</c:v>
+                  <c:v>230.36618364</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>394.75329405000002</c:v>
+                  <c:v>233.47121254800001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>385.96107289399998</c:v>
+                  <c:v>223.94911358300001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>391.01166379199998</c:v>
+                  <c:v>228.264962252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>395.431774072</c:v>
+                  <c:v>230.60946095700001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>390.516295238</c:v>
+                  <c:v>206.98599342899999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1058,34 +1058,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>411.16927304199999</c:v>
+                  <c:v>252.634357521</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>410.96536690900001</c:v>
+                  <c:v>252.28017408299999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>410.97990929700001</c:v>
+                  <c:v>252.29430338</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>410.90131940800001</c:v>
+                  <c:v>252.231640704</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>390.47794382699999</c:v>
+                  <c:v>229.197590617</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>395.01928021200001</c:v>
+                  <c:v>233.80591016100001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>389.78454594099998</c:v>
+                  <c:v>227.94800138400001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>390.12168651399998</c:v>
+                  <c:v>227.30625686900001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>396.24814598799998</c:v>
+                  <c:v>229.231217061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>381.42936438300001</c:v>
+                  <c:v>206.35550061000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1101,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-647143280"/>
-        <c:axId val="-647135120"/>
+        <c:axId val="-2011221200"/>
+        <c:axId val="-2011219568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-647143280"/>
+        <c:axId val="-2011221200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-647135120"/>
+        <c:crossAx val="-2011219568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,10 +1212,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-647135120"/>
+        <c:axId val="-2011219568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="380"/>
+          <c:max val="270"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1320,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-647143280"/>
+        <c:crossAx val="-2011221200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2846,7 +2847,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -2870,10 +2871,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>411.82014606799999</v>
+        <v>253.16058114500001</v>
       </c>
       <c r="C2" s="1">
-        <v>411.16927304199999</v>
+        <v>252.634357521</v>
       </c>
       <c r="D2" s="1">
         <v>714.50636427500001</v>
@@ -2884,10 +2885,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>411.17186969099998</v>
+        <v>252.52323912099999</v>
       </c>
       <c r="C3" s="1">
-        <v>410.96536690900001</v>
+        <v>252.28017408299999</v>
       </c>
       <c r="D3" s="1">
         <v>716.54652031099999</v>
@@ -2898,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>411.85310912599999</v>
+        <v>253.26263905600001</v>
       </c>
       <c r="C4" s="1">
-        <v>410.97990929700001</v>
+        <v>252.29430338</v>
       </c>
       <c r="D4" s="1">
         <v>718.17246099500005</v>
@@ -2912,10 +2913,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>411.70014296199997</v>
+        <v>253.052462687</v>
       </c>
       <c r="C5" s="1">
-        <v>410.90131940800001</v>
+        <v>252.231640704</v>
       </c>
       <c r="D5" s="1">
         <v>715.68227361599997</v>
@@ -2926,10 +2927,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>391.53296663100002</v>
+        <v>230.36618364</v>
       </c>
       <c r="C6" s="1">
-        <v>390.47794382699999</v>
+        <v>229.197590617</v>
       </c>
       <c r="D6" s="1">
         <v>593.80694523700004</v>
@@ -2940,10 +2941,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>394.75329405000002</v>
+        <v>233.47121254800001</v>
       </c>
       <c r="C7" s="1">
-        <v>395.01928021200001</v>
+        <v>233.80591016100001</v>
       </c>
       <c r="D7" s="1">
         <v>624.08815191899998</v>
@@ -2954,10 +2955,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>385.96107289399998</v>
+        <v>223.94911358300001</v>
       </c>
       <c r="C8" s="1">
-        <v>389.78454594099998</v>
+        <v>227.94800138400001</v>
       </c>
       <c r="D8" s="1">
         <v>589.92162062800003</v>
@@ -2968,10 +2969,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>391.01166379199998</v>
+        <v>228.264962252</v>
       </c>
       <c r="C9" s="1">
-        <v>390.12168651399998</v>
+        <v>227.30625686900001</v>
       </c>
       <c r="D9" s="1">
         <v>606.24128260099997</v>
@@ -2982,10 +2983,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>395.431774072</v>
+        <v>230.60946095700001</v>
       </c>
       <c r="C10" s="1">
-        <v>396.24814598799998</v>
+        <v>229.231217061</v>
       </c>
       <c r="D10" s="1">
         <v>624.90099603800002</v>
@@ -2996,10 +2997,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>390.516295238</v>
+        <v>206.98599342899999</v>
       </c>
       <c r="C11" s="2">
-        <v>381.42936438300001</v>
+        <v>206.35550061000001</v>
       </c>
       <c r="D11" s="2">
         <v>466.76526427300001</v>
@@ -3011,7 +3012,7 @@
       </c>
       <c r="C15">
         <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.43106021713003001</v>
+        <v>0.48679710363291051</v>
       </c>
     </row>
   </sheetData>

--- a/Experiment 2/Trace Files/reno-reno/ThroughputGraph.xlsx
+++ b/Experiment 2/Trace Files/reno-reno/ThroughputGraph.xlsx
@@ -503,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2011220112"/>
-        <c:axId val="-2011232080"/>
+        <c:axId val="1836627072"/>
+        <c:axId val="1836621632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2011220112"/>
+        <c:axId val="1836627072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011232080"/>
+        <c:crossAx val="1836621632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -614,7 +614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011232080"/>
+        <c:axId val="1836621632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="750"/>
@@ -723,7 +723,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011220112"/>
+        <c:crossAx val="1836627072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1101,11 +1101,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2011221200"/>
-        <c:axId val="-2011219568"/>
+        <c:axId val="1836627616"/>
+        <c:axId val="1836622720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2011221200"/>
+        <c:axId val="1836627616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1204,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011219568"/>
+        <c:crossAx val="1836622720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1212,7 +1212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2011219568"/>
+        <c:axId val="1836622720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="270"/>
@@ -1321,7 +1321,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2011221200"/>
+        <c:crossAx val="1836627616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.3"/>
@@ -3011,8 +3011,8 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <f>TTEST(B2:B11,C2:C11,1,3)</f>
-        <v>0.48679710363291051</v>
+        <f>TTEST(B2:B11,C2:C11,2,3)</f>
+        <v>0.97359420726582102</v>
       </c>
     </row>
   </sheetData>
